--- a/VerveStacks_MEX/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_MEX/SuppXLS/Scen_Base_VS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_MEX\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACADE4F5-3BC3-48CA-9FC7-B30962380F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36182267-BE39-424B-971D-41D717463185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>bioenergy</t>
   </si>
@@ -187,9 +187,6 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>ITA</t>
-  </si>
-  <si>
     <t>IRENA Utilization Factors</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>-CO2Captured</t>
+  </si>
+  <si>
+    <t>MEX</t>
   </si>
 </sst>
 </file>
@@ -687,19 +687,19 @@
         <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3">
         <v>2050</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T3">
         <v>2050</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.45">
@@ -713,19 +713,19 @@
         <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="4" cm="1">
         <f t="array" ref="Q4">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>0.62231700981598448</v>
+        <v>0.79690080637326355</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4" cm="1">
         <f t="array" ref="S4">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>0.19733814732221869</v>
+        <v>0.28072006925701481</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
@@ -737,28 +737,28 @@
       </c>
       <c r="D5">
         <f>VLOOKUP(B5,historical_data!$B$2:$J$12,MATCH(Veda!$J5,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" t="s">
         <v>2</v>
       </c>
       <c r="Q5" s="4" cm="1">
         <f t="array" ref="Q5">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>0.2955149688458561</v>
+        <v>0.70395194452165721</v>
       </c>
       <c r="R5" s="4">
         <f>IF(Q5&gt;0.7,Q5,0.7)</f>
-        <v>0.7</v>
+        <v>0.70395194452165721</v>
       </c>
       <c r="S5" s="4" cm="1">
         <f t="array" ref="S5">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>0.15844369919854487</v>
+        <v>0.45305856442044345</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
@@ -770,16 +770,16 @@
       </c>
       <c r="D6">
         <f>VLOOKUP(B6,historical_data!$B$2:$J$12,MATCH(Veda!$J6,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
       <c r="U6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" t="s">
         <v>59</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.45">
@@ -791,22 +791,22 @@
       </c>
       <c r="D7">
         <f>VLOOKUP(B7,historical_data!$B$2:$J$12,MATCH(Veda!$J7,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V7" t="s">
         <v>18</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y7">
         <v>2022</v>
@@ -815,31 +815,31 @@
         <v>2050</v>
       </c>
       <c r="AA7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB7" t="s">
         <v>61</v>
       </c>
-      <c r="AB7" t="s">
-        <v>62</v>
-      </c>
       <c r="AD7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE7" t="s">
         <v>18</v>
       </c>
       <c r="AF7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" t="s">
         <v>53</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>54</v>
       </c>
       <c r="AH7">
         <v>2050</v>
       </c>
       <c r="AI7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>61</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.45">
@@ -849,28 +849,28 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="e">
+      <c r="D8">
         <f>VLOOKUP(B8,historical_data!$B$2:$J$12,MATCH(Veda!$J8,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>#N/A</v>
+        <v>0.77</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8" s="3">
         <f>-Q4*$Q$1*8.76</f>
-        <v>-5.9966467065868265</v>
+        <v>-7.6789361702127676</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8">
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE8" t="s">
         <v>1</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="AG8" s="3">
         <f>-S4*$S$1*8.76</f>
-        <v>-1.5558139534883721</v>
+        <v>-2.2131970260223044</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -901,24 +901,24 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="U9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9" s="3">
         <f>-Q5*$Q$1*8.76</f>
-        <v>-2.8475822397986694</v>
+        <v>-6.783280937410689</v>
       </c>
       <c r="Z9" s="3">
         <f>-R5*$Q$1*8.76</f>
-        <v>-6.7451999999999996</v>
+        <v>-6.783280937410689</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="AD9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE9" t="s">
         <v>2</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="AG9" s="3">
         <f>-S5*$S$1*8.76</f>
-        <v>-1.2491701244813276</v>
+        <v>-3.5719137218907764</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1109,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1156,753 +1156,952 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="E2">
-        <v>17.600000000000001</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>23.5</v>
+        <v>6.7</v>
       </c>
       <c r="G2">
-        <v>0.59</v>
+        <v>0.26</v>
       </c>
       <c r="H2">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>21.5</v>
+      </c>
       <c r="D3">
-        <v>17.2</v>
+        <v>21.4</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>22.6</v>
+        <v>21.4</v>
+      </c>
+      <c r="G3">
+        <v>0.46</v>
       </c>
       <c r="H3">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>257.3</v>
+      </c>
       <c r="D4">
-        <v>111.9</v>
+        <v>192.6</v>
+      </c>
+      <c r="E4">
+        <v>217.5</v>
       </c>
       <c r="F4">
-        <v>141.5</v>
+        <v>192.1</v>
+      </c>
+      <c r="G4">
+        <v>0.67</v>
       </c>
       <c r="H4">
-        <v>0.28999999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="E5">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="G5">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>20.7</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>23.4</v>
+        <v>31.6</v>
       </c>
       <c r="E6">
-        <v>30.3</v>
+        <v>35.9</v>
       </c>
       <c r="F6">
-        <v>28.4</v>
+        <v>35.6</v>
       </c>
       <c r="G6">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="H6">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>10.8</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>10.8</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>10.9</v>
       </c>
       <c r="F7">
-        <v>15.6</v>
+        <v>10.9</v>
       </c>
       <c r="G7">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="H7">
-        <v>1.24</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="D8">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="E8">
-        <v>28.1</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="F8">
-        <v>28.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G8">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H8">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>28.2</v>
       </c>
       <c r="D9">
-        <v>16.8</v>
+        <v>27.9</v>
       </c>
       <c r="E9">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F9">
         <v>20.3</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>44</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>22.3</v>
+      </c>
+      <c r="D10">
+        <v>23.1</v>
+      </c>
+      <c r="E10">
+        <v>20.6</v>
+      </c>
+      <c r="F10">
+        <v>20.5</v>
+      </c>
+      <c r="G10">
+        <v>0.31</v>
+      </c>
+      <c r="H10">
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>2000</v>
-      </c>
-      <c r="E13">
-        <v>2001</v>
-      </c>
-      <c r="F13">
-        <v>2002</v>
-      </c>
-      <c r="G13">
-        <v>2003</v>
-      </c>
-      <c r="H13">
-        <v>2004</v>
-      </c>
-      <c r="I13">
-        <v>2005</v>
-      </c>
-      <c r="J13">
-        <v>2006</v>
-      </c>
-      <c r="K13">
-        <v>2007</v>
-      </c>
-      <c r="L13">
-        <v>2008</v>
-      </c>
-      <c r="M13">
-        <v>2009</v>
-      </c>
-      <c r="N13">
-        <v>2010</v>
-      </c>
-      <c r="O13">
-        <v>2011</v>
-      </c>
-      <c r="P13">
-        <v>2012</v>
-      </c>
-      <c r="Q13">
-        <v>2013</v>
-      </c>
-      <c r="R13">
-        <v>2014</v>
-      </c>
-      <c r="S13">
-        <v>2015</v>
-      </c>
-      <c r="T13">
-        <v>2016</v>
-      </c>
-      <c r="U13">
-        <v>2017</v>
-      </c>
-      <c r="V13">
-        <v>2018</v>
-      </c>
-      <c r="W13">
-        <v>2019</v>
-      </c>
-      <c r="X13">
-        <v>2020</v>
-      </c>
-      <c r="Y13">
-        <v>2021</v>
-      </c>
-      <c r="Z13">
-        <v>2022</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.29387335196920444</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.36119588962232163</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.44005793825548695</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.44668870313278031</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.54898593711379096</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.61000284572266994</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.64753472829655767</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.62752567747232946</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.58888908630393622</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.5673952378959225</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.59031104308580318</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.54674259382098878</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0.44853889899451427</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.58350948198641062</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0.63667296066860524</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0.65763867133730136</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0.64758790186698112</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0.64110341340216126</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0.62627406907580729</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.64651878707642696</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0.65169312541193969</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.63648704525812538</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0.59277106311612904</v>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>2001</v>
+      </c>
+      <c r="F14">
+        <v>2002</v>
+      </c>
+      <c r="G14">
+        <v>2003</v>
+      </c>
+      <c r="H14">
+        <v>2004</v>
+      </c>
+      <c r="I14">
+        <v>2005</v>
+      </c>
+      <c r="J14">
+        <v>2006</v>
+      </c>
+      <c r="K14">
+        <v>2007</v>
+      </c>
+      <c r="L14">
+        <v>2008</v>
+      </c>
+      <c r="M14">
+        <v>2009</v>
+      </c>
+      <c r="N14">
+        <v>2010</v>
+      </c>
+      <c r="O14">
+        <v>2011</v>
+      </c>
+      <c r="P14">
+        <v>2012</v>
+      </c>
+      <c r="Q14">
+        <v>2013</v>
+      </c>
+      <c r="R14">
+        <v>2014</v>
+      </c>
+      <c r="S14">
+        <v>2015</v>
+      </c>
+      <c r="T14">
+        <v>2016</v>
+      </c>
+      <c r="U14">
+        <v>2017</v>
+      </c>
+      <c r="V14">
+        <v>2018</v>
+      </c>
+      <c r="W14">
+        <v>2019</v>
+      </c>
+      <c r="X14">
+        <v>2020</v>
+      </c>
+      <c r="Y14">
+        <v>2021</v>
+      </c>
+      <c r="Z14">
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.91033975698475367</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.89790177468582399</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.79908675799086759</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.86238075862380759</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.96681069431997602</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.90583467733703538</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.94035447672321693</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.94745932262213428</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.93915491088745062</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.87740580138628832</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0.84297945205479452</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.88662611646344525</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0.87681346906518143</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0.88618737120343749</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0.87940166595319624</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.91933192422945187</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0.93594997410298097</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0.922711274930198</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0.90846117489425482</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0.90391841519020266</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0.89132060374858879</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.87470664323539882</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0.86333726595725613</v>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.58014461978320908</v>
+      </c>
+      <c r="E15">
+        <v>0.60939473428543678</v>
+      </c>
+      <c r="F15">
+        <v>0.60162246186728852</v>
+      </c>
+      <c r="G15">
+        <v>0.58852308046506274</v>
+      </c>
+      <c r="H15">
+        <v>0.59564410087345354</v>
+      </c>
+      <c r="I15">
+        <v>0.72652845136466349</v>
+      </c>
+      <c r="J15">
+        <v>0.55115951482836534</v>
+      </c>
+      <c r="K15">
+        <v>0.5573323521642326</v>
+      </c>
+      <c r="L15">
+        <v>0.2000542520005425</v>
+      </c>
+      <c r="M15">
+        <v>0.21036156342437032</v>
+      </c>
+      <c r="N15">
+        <v>0.20519758723716106</v>
+      </c>
+      <c r="O15">
+        <v>0.18877084956452075</v>
+      </c>
+      <c r="P15">
+        <v>0.23122848296189857</v>
+      </c>
+      <c r="Q15">
+        <v>0.26037653447835457</v>
+      </c>
+      <c r="R15">
+        <v>0.25394068076327608</v>
+      </c>
+      <c r="S15">
+        <v>0.21108350665634601</v>
+      </c>
+      <c r="T15">
+        <v>0.19778125334898083</v>
+      </c>
+      <c r="U15">
+        <v>0.26767327671886387</v>
+      </c>
+      <c r="V15">
+        <v>0.29776654547353232</v>
+      </c>
+      <c r="W15">
+        <v>0.27574884911606812</v>
+      </c>
+      <c r="X15">
+        <v>0.26778867191259442</v>
+      </c>
+      <c r="Y15">
+        <v>0.21748687311229414</v>
+      </c>
+      <c r="Z15">
+        <v>0.25840563644674214</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.28558245436146446</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.30125755131902554</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.26300120576970937</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.24464788133158288</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.27464620897146697</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.23342690659878584</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.23524997898052519</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.20802424867929775</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.25339148834066899</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.2854692026001181</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.28860623970905264</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0.25080291521537151</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0.22880093682435534</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0.28356807022282915</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0.31127604163438005</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0.24130564426305645</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0.22657477726978403</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0.19355715910404311</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0.25624516880745851</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0.24386476819833647</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0.24895999115400089</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.23824110380502575</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0.15125668935897063</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.56245521146112809</v>
+      </c>
+      <c r="E16">
+        <v>0.6839839146219403</v>
+      </c>
+      <c r="F16">
+        <v>0.770658991169625</v>
+      </c>
+      <c r="G16">
+        <v>0.90492096488578566</v>
+      </c>
+      <c r="H16">
+        <v>0.70358722882575564</v>
+      </c>
+      <c r="I16">
+        <v>0.96768187258944016</v>
+      </c>
+      <c r="J16">
+        <v>0.93936841483057743</v>
+      </c>
+      <c r="K16">
+        <v>0.91928304519333937</v>
+      </c>
+      <c r="L16">
+        <v>0.61778306755679013</v>
+      </c>
+      <c r="M16">
+        <v>0.85239599688421952</v>
+      </c>
+      <c r="N16">
+        <v>0.86404685049275454</v>
+      </c>
+      <c r="O16">
+        <v>0.89833888740744761</v>
+      </c>
+      <c r="P16">
+        <v>0.88389778272541109</v>
+      </c>
+      <c r="Q16">
+        <v>0.8397748478499294</v>
+      </c>
+      <c r="R16">
+        <v>0.88444867686415296</v>
+      </c>
+      <c r="S16">
+        <v>0.8826439635434209</v>
+      </c>
+      <c r="T16">
+        <v>0.86728405276464826</v>
+      </c>
+      <c r="U16">
+        <v>0.7549733082631821</v>
+      </c>
+      <c r="V16">
+        <v>0.54088552623134356</v>
+      </c>
+      <c r="W16">
+        <v>0.49413377831244254</v>
+      </c>
+      <c r="X16">
+        <v>0.33034829050561587</v>
+      </c>
+      <c r="Y16">
+        <v>0.32656277226246161</v>
+      </c>
+      <c r="Z16">
+        <v>0.45612641424298384</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.18549363909037686</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.16242780220674277</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.18947752518915301</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.16134275900234468</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.12074365174832007</v>
-      </c>
-      <c r="I17" s="3">
-        <v>9.2604874927729272E-2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>8.5383142670290207E-2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>6.3942571567428885E-2</v>
-      </c>
-      <c r="L17" s="3">
-        <v>5.4351971653901113E-2</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4.5120373132528896E-2</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3.8445903076430775E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3.5465642257402952E-2</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3.3828410664150516E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2.9497986896519491E-2</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2.8898030899281432E-2</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2.9934943675673939E-2</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2.9741012269575366E-2</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2.8767224001894291E-2</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2.7660265219492469E-2</v>
-      </c>
-      <c r="W17" s="3">
-        <v>2.5984909288337733E-2</v>
-      </c>
-      <c r="X17" s="3">
-        <v>2.5949170525979785E-2</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2.1681649145671975E-2</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>3.1944135901513453E-2</v>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.60121220642386575</v>
+      </c>
+      <c r="E17">
+        <v>0.569880699651378</v>
+      </c>
+      <c r="F17">
+        <v>0.57907887943005942</v>
+      </c>
+      <c r="G17">
+        <v>0.58403365019276032</v>
+      </c>
+      <c r="H17">
+        <v>0.56737484163473695</v>
+      </c>
+      <c r="I17">
+        <v>0.53907717649156006</v>
+      </c>
+      <c r="J17">
+        <v>0.59686181634665825</v>
+      </c>
+      <c r="K17">
+        <v>0.63064188172461888</v>
+      </c>
+      <c r="L17">
+        <v>0.66065347459795509</v>
+      </c>
+      <c r="M17">
+        <v>0.66817452140086209</v>
+      </c>
+      <c r="N17">
+        <v>0.6517190789902465</v>
+      </c>
+      <c r="O17">
+        <v>0.71537100976171253</v>
+      </c>
+      <c r="P17">
+        <v>0.70858472893367097</v>
+      </c>
+      <c r="Q17">
+        <v>0.71922333287630624</v>
+      </c>
+      <c r="R17">
+        <v>0.73526120114962501</v>
+      </c>
+      <c r="S17">
+        <v>0.78279650759314312</v>
+      </c>
+      <c r="T17">
+        <v>0.74773009271918944</v>
+      </c>
+      <c r="U17">
+        <v>0.72101422169129115</v>
+      </c>
+      <c r="V17">
+        <v>0.6858444466867909</v>
+      </c>
+      <c r="W17">
+        <v>0.64007472004413102</v>
+      </c>
+      <c r="X17">
+        <v>0.59577685998667984</v>
+      </c>
+      <c r="Y17">
+        <v>0.70350610574266803</v>
+      </c>
+      <c r="Z17">
+        <v>0.67333656196044422</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.10814708002883922</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.10844748858447488</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.10896637608966378</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.10537407797681771</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.1067903962291943</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.10408272898200376</v>
-      </c>
-      <c r="J18" s="3">
-        <v>8.8787417554540851E-2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4.0424449979244499E-2</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4.5606559081841996E-2</v>
-      </c>
-      <c r="M18" s="3">
-        <v>6.1094824721114389E-2</v>
-      </c>
-      <c r="N18" s="3">
-        <v>6.0783945108384398E-2</v>
-      </c>
-      <c r="O18" s="3">
-        <v>9.457878955568752E-2</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0.12931650057322672</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0.13673327820166969</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0.13816232692585365</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0.13981618422725917</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0.132076705674749</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0.14275360852558924</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0.12991755316197512</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0.13118242254470275</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0.13337047062172605</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.12832090743979691</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0.13076711146608011</v>
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0.79908675799086759</v>
+      </c>
+      <c r="E18">
+        <v>0.75385798707594653</v>
+      </c>
+      <c r="F18">
+        <v>0.72240333606342377</v>
+      </c>
+      <c r="G18">
+        <v>0.75249033333812487</v>
+      </c>
+      <c r="H18">
+        <v>0.78782695357606602</v>
+      </c>
+      <c r="I18">
+        <v>0.87431183429401038</v>
+      </c>
+      <c r="J18">
+        <v>0.80076375013775303</v>
+      </c>
+      <c r="K18">
+        <v>0.88226041696456659</v>
+      </c>
+      <c r="L18">
+        <v>0.84079274744759347</v>
+      </c>
+      <c r="M18">
+        <v>0.80313819696666389</v>
+      </c>
+      <c r="N18">
+        <v>0.85558261840860084</v>
+      </c>
+      <c r="O18">
+        <v>0.91931710294317104</v>
+      </c>
+      <c r="P18">
+        <v>0.79716818234142983</v>
+      </c>
+      <c r="Q18">
+        <v>0.80760183499909532</v>
+      </c>
+      <c r="R18">
+        <v>0.78909159775266713</v>
+      </c>
+      <c r="S18">
+        <v>0.80480723271399668</v>
+      </c>
+      <c r="T18">
+        <v>0.75996370765377885</v>
+      </c>
+      <c r="U18">
+        <v>0.84355735925265329</v>
+      </c>
+      <c r="V18">
+        <v>0.64689981537780161</v>
+      </c>
+      <c r="W18">
+        <v>0.62747277746116836</v>
+      </c>
+      <c r="X18">
+        <v>0.62383763335702036</v>
+      </c>
+      <c r="Y18">
+        <v>0.49880757208872678</v>
+      </c>
+      <c r="Z18">
+        <v>0.51858609832557045</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.17705070631596159</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.20269433899983494</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.20547945205479451</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.19043290178991254</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.1867689303237674</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.1634194908745619</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.1781260653289736</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.17044532377504912</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.15732740697561451</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.15299618343829349</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0.17972438028317755</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0.16251183135517033</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0.18890322756994438</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0.19908293588810169</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0.19954897961008153</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0.18545551905719279</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0.21518058037191448</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0.20801272044711919</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0.19769064914008325</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0.21594436217582091</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0.19702002802981769</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0.21228169618742199</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0.19792026167823587</v>
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0.39182699016606853</v>
+      </c>
+      <c r="E19">
+        <v>0.33706132477328593</v>
+      </c>
+      <c r="F19">
+        <v>0.29518993379965558</v>
+      </c>
+      <c r="G19">
+        <v>0.23497684745227418</v>
+      </c>
+      <c r="H19">
+        <v>0.27214577322178879</v>
+      </c>
+      <c r="I19">
+        <v>0.29846460217789</v>
+      </c>
+      <c r="J19">
+        <v>0.32181210891256551</v>
+      </c>
+      <c r="K19">
+        <v>0.26958664301719321</v>
+      </c>
+      <c r="L19">
+        <v>0.39134093529624853</v>
+      </c>
+      <c r="M19">
+        <v>0.26581837197141361</v>
+      </c>
+      <c r="N19">
+        <v>0.36549958007562183</v>
+      </c>
+      <c r="O19">
+        <v>0.35759960509275329</v>
+      </c>
+      <c r="P19">
+        <v>0.31305790865562549</v>
+      </c>
+      <c r="Q19">
+        <v>0.27478507632559102</v>
+      </c>
+      <c r="R19">
+        <v>0.35621299404656814</v>
+      </c>
+      <c r="S19">
+        <v>0.28779292422116043</v>
+      </c>
+      <c r="T19">
+        <v>0.27856413237574318</v>
+      </c>
+      <c r="U19">
+        <v>0.28911236372428117</v>
+      </c>
+      <c r="V19">
+        <v>0.29403010995245388</v>
+      </c>
+      <c r="W19">
+        <v>0.20704381315799894</v>
+      </c>
+      <c r="X19">
+        <v>0.23015557465324726</v>
+      </c>
+      <c r="Y19">
+        <v>0.28205415404677914</v>
+      </c>
+      <c r="Z19">
+        <v>0.3187861847328351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>0.71748495384916144</v>
+      </c>
+      <c r="E20">
+        <v>0.76155865555136637</v>
+      </c>
+      <c r="F20">
+        <v>0.85066608018097267</v>
+      </c>
+      <c r="G20">
+        <v>0.91655844609218995</v>
+      </c>
+      <c r="H20">
+        <v>0.8024031949506375</v>
+      </c>
+      <c r="I20">
+        <v>0.94300266711351277</v>
+      </c>
+      <c r="J20">
+        <v>0.9483264211805118</v>
+      </c>
+      <c r="K20">
+        <v>0.90948919888846991</v>
+      </c>
+      <c r="L20">
+        <v>0.85564073562062748</v>
+      </c>
+      <c r="M20">
+        <v>0.91647117143535384</v>
+      </c>
+      <c r="N20">
+        <v>0.41736238896839994</v>
+      </c>
+      <c r="O20">
+        <v>0.71623901042731541</v>
+      </c>
+      <c r="P20">
+        <v>0.62260046797973601</v>
+      </c>
+      <c r="Q20">
+        <v>0.83770644494422863</v>
+      </c>
+      <c r="R20">
+        <v>0.68699027692587289</v>
+      </c>
+      <c r="S20">
+        <v>0.8218752129762148</v>
+      </c>
+      <c r="T20">
+        <v>0.75017322065471725</v>
+      </c>
+      <c r="U20">
+        <v>0.77260671528203717</v>
+      </c>
+      <c r="V20">
+        <v>0.97081657920443443</v>
+      </c>
+      <c r="W20">
+        <v>0.79440128126490828</v>
+      </c>
+      <c r="X20">
+        <v>0.79951271042050021</v>
+      </c>
+      <c r="Y20">
+        <v>0.84643846975169812</v>
+      </c>
+      <c r="Z20">
+        <v>0.77026397691905757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.67293219244225799</v>
+      </c>
+      <c r="E21">
+        <v>0.67735758195099771</v>
+      </c>
+      <c r="F21">
+        <v>0.57868120993152228</v>
+      </c>
+      <c r="G21">
+        <v>0.55206676181978731</v>
+      </c>
+      <c r="H21">
+        <v>0.53872393212426961</v>
+      </c>
+      <c r="I21">
+        <v>0.5630178923400655</v>
+      </c>
+      <c r="J21">
+        <v>0.42985499077915029</v>
+      </c>
+      <c r="K21">
+        <v>0.39589001301283644</v>
+      </c>
+      <c r="L21">
+        <v>0.36611297216793137</v>
+      </c>
+      <c r="M21">
+        <v>0.33314579763761853</v>
+      </c>
+      <c r="N21">
+        <v>0.30874905606901953</v>
+      </c>
+      <c r="O21">
+        <v>0.33783870844885472</v>
+      </c>
+      <c r="P21">
+        <v>0.38234613440410786</v>
+      </c>
+      <c r="Q21">
+        <v>0.32631800202059158</v>
+      </c>
+      <c r="R21">
+        <v>0.21928140819051131</v>
+      </c>
+      <c r="S21">
+        <v>0.21010707279799432</v>
+      </c>
+      <c r="T21">
+        <v>0.21199153727837797</v>
+      </c>
+      <c r="U21">
+        <v>0.23512245324225062</v>
+      </c>
+      <c r="V21">
+        <v>0.26853876319870329</v>
+      </c>
+      <c r="W21">
+        <v>0.26069754168754611</v>
+      </c>
+      <c r="X21">
+        <v>0.20298034300588419</v>
+      </c>
+      <c r="Y21">
+        <v>0.23992227116487183</v>
+      </c>
+      <c r="Z21">
+        <v>0.11346865789699474</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="E22">
+        <v>6.088280060882801E-2</v>
+      </c>
+      <c r="F22">
+        <v>5.7077625570776253E-2</v>
+      </c>
+      <c r="G22">
+        <v>5.7077625570776253E-2</v>
+      </c>
+      <c r="H22">
+        <v>6.4212328767123281E-2</v>
+      </c>
+      <c r="I22">
+        <v>6.4212328767123281E-2</v>
+      </c>
+      <c r="J22">
+        <v>7.1347031963470323E-2</v>
+      </c>
+      <c r="K22">
+        <v>5.4073540014419608E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="M22">
+        <v>0.12255235709033471</v>
+      </c>
+      <c r="N22">
+        <v>0.11871227055981645</v>
+      </c>
+      <c r="O22">
+        <v>0.11038597398121824</v>
+      </c>
+      <c r="P22">
+        <v>0.10819659792262533</v>
+      </c>
+      <c r="Q22">
+        <v>0.11101336349545474</v>
+      </c>
+      <c r="R22">
+        <v>0.14470752840589141</v>
+      </c>
+      <c r="S22">
+        <v>9.2485101772308662E-2</v>
+      </c>
+      <c r="T22">
+        <v>8.7406000874060016E-2</v>
+      </c>
+      <c r="U22">
+        <v>0.1154331084304505</v>
+      </c>
+      <c r="V22">
+        <v>5.6233043918270671E-2</v>
+      </c>
+      <c r="W22">
+        <v>0.12903499708878971</v>
+      </c>
+      <c r="X22">
+        <v>0.14544368980365971</v>
+      </c>
+      <c r="Y22">
+        <v>0.16656849043661098</v>
+      </c>
+      <c r="Z22">
+        <v>0.25082713611547369</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
@@ -1910,663 +2109,831 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>2000</v>
+        <v>0.12758528068761751</v>
       </c>
       <c r="E23">
-        <v>2001</v>
+        <v>0.12087026591458501</v>
       </c>
       <c r="F23">
-        <v>2002</v>
+        <v>0.13318112633181128</v>
       </c>
       <c r="G23">
-        <v>2003</v>
+        <v>0.12049720953830544</v>
       </c>
       <c r="H23">
-        <v>2004</v>
+        <v>0.12683916793505837</v>
       </c>
       <c r="I23">
-        <v>2005</v>
+        <v>0.12049720953830544</v>
       </c>
       <c r="J23">
-        <v>2006</v>
+        <v>6.6684750666847509E-2</v>
       </c>
       <c r="K23">
-        <v>2007</v>
+        <v>0.29612550296125506</v>
       </c>
       <c r="L23">
-        <v>2008</v>
+        <v>0.30403725304037255</v>
       </c>
       <c r="M23">
-        <v>2009</v>
+        <v>0.16008595218909483</v>
       </c>
       <c r="N23">
-        <v>2010</v>
+        <v>0.27252091746509355</v>
       </c>
       <c r="O23">
-        <v>2011</v>
+        <v>0.31298930217758819</v>
       </c>
       <c r="P23">
-        <v>2012</v>
+        <v>0.23194425366274882</v>
       </c>
       <c r="Q23">
-        <v>2013</v>
+        <v>0.22512433399104062</v>
       </c>
       <c r="R23">
-        <v>2014</v>
+        <v>0.28552242469929895</v>
       </c>
       <c r="S23">
-        <v>2015</v>
+        <v>0.3051755985000193</v>
       </c>
       <c r="T23">
-        <v>2016</v>
+        <v>0.2924330941315158</v>
       </c>
       <c r="U23">
-        <v>2017</v>
+        <v>0.28514290822968075</v>
       </c>
       <c r="V23">
-        <v>2018</v>
+        <v>0.35164730637562536</v>
       </c>
       <c r="W23">
-        <v>2019</v>
+        <v>0.29458248705439111</v>
       </c>
       <c r="X23">
-        <v>2020</v>
+        <v>0.32150786920421759</v>
       </c>
       <c r="Y23">
-        <v>2021</v>
+        <v>0.31939191887210489</v>
       </c>
       <c r="Z23">
-        <v>2022</v>
-      </c>
-      <c r="AA23">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.61522608801066792</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.62934286281516771</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.61410525614105249</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.63330715760695699</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.72548666186012989</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.74052659669098031</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.77363813512491642</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0.75846709807546864</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.71674526536417393</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0.66333456744415642</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0.66085188356164382</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.62919014676012885</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0.52921203606135103</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0.63624764974482939</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0.68106183731909309</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0.70676749919842574</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0.69930259547283602</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0.69169425869419376</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0.67662443458314581</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0.69304680906316962</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0.69550645885530227</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0.68029990954762931</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0.64195219167132056</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0.60575494311218137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.34602076124567482</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.42117978124668154</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.47055856429860893</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.51515875544228529</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.62231700981598448</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.57221959796357535</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.58009237390437207</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0.57878024458090593</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0.61000827129859381</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0.52024422939968995</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0.45490352335545442</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0.51215289704730615</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0.56264684464351955</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0.51638935070050329</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0.50458246816891728</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0.50892743542983165</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0.46671280059135295</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0.43565916312852143</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0.38011695906432741</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0.25154209725226306</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0.19733814732221869</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0.23501565653517861</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0.37900884409845853</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0.25717309414385414</v>
+        <v>0.30848930997881585</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.21688427845750258</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.22202418548512892</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.21195692035826924</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.2444397765407833</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.25723564401629956</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.28042118198664318</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0.28071079794005777</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0.2922584260992816</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.2779788969658355</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0.23646215642703375</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0.24074060070301742</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0.22510363173419468</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0.20133855684813015</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0.17523112617091591</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0.15844369919854487</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0.20478133387114289</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0.24738866431689593</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0.2791433980876013</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0.25589885068453339</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0.28175925948019492</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0.27138259384113744</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0.2955149688458561</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0.2867461537463678</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0.23584379225019769</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.30785003663554733</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.3246419991455694</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.27242847373877754</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.25066305744675033</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.2878697637482629</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0.24164201341994127</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0.24679151021192447</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.21833189641408821</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.27431533213114406</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0.32220499948856351</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0.33232439853964491</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.29418411739628436</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0.26672323467058051</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0.33373809433461088</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0.36886258026147345</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0.28501261715933668</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0.26438904508384675</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0.22349486702672805</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0.3000880766808377</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.28428339961702753</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0.28949771689497716</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0.27546554222833963</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0.1712630286539932</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0.22976393784140595</v>
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>2001</v>
+      </c>
+      <c r="F27">
+        <v>2002</v>
+      </c>
+      <c r="G27">
+        <v>2003</v>
+      </c>
+      <c r="H27">
+        <v>2004</v>
+      </c>
+      <c r="I27">
+        <v>2005</v>
+      </c>
+      <c r="J27">
+        <v>2006</v>
+      </c>
+      <c r="K27">
+        <v>2007</v>
+      </c>
+      <c r="L27">
+        <v>2008</v>
+      </c>
+      <c r="M27">
+        <v>2009</v>
+      </c>
+      <c r="N27">
+        <v>2010</v>
+      </c>
+      <c r="O27">
+        <v>2011</v>
+      </c>
+      <c r="P27">
+        <v>2012</v>
+      </c>
+      <c r="Q27">
+        <v>2013</v>
+      </c>
+      <c r="R27">
+        <v>2014</v>
+      </c>
+      <c r="S27">
+        <v>2015</v>
+      </c>
+      <c r="T27">
+        <v>2016</v>
+      </c>
+      <c r="U27">
+        <v>2017</v>
+      </c>
+      <c r="V27">
+        <v>2018</v>
+      </c>
+      <c r="W27">
+        <v>2019</v>
+      </c>
+      <c r="X27">
+        <v>2020</v>
+      </c>
+      <c r="Y27">
+        <v>2021</v>
+      </c>
+      <c r="Z27">
+        <v>2022</v>
+      </c>
+      <c r="AA27">
+        <v>2023</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>8.2835036602159899</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6.8518331990330372</v>
-      </c>
-      <c r="F28" s="3">
-        <v>7.9203599247918337</v>
-      </c>
-      <c r="G28" s="3">
-        <v>6.9920091324200904</v>
-      </c>
-      <c r="H28" s="3">
-        <v>5.4123019070641956</v>
-      </c>
-      <c r="I28" s="3">
-        <v>4.2221588026382548</v>
-      </c>
-      <c r="J28" s="3">
-        <v>4.1714231354642308</v>
-      </c>
-      <c r="K28" s="3">
-        <v>3.3001966007102994</v>
-      </c>
-      <c r="L28" s="3">
-        <v>2.9783422120750886</v>
-      </c>
-      <c r="M28" s="3">
-        <v>2.378234398782344</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2.1499238964992391</v>
-      </c>
-      <c r="O28" s="3">
-        <v>2.0682711821410451</v>
-      </c>
-      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2.2000830220008303</v>
+      </c>
+      <c r="E28">
+        <v>1.5180219566695814</v>
+      </c>
+      <c r="F28">
+        <v>1.4743029243174977</v>
+      </c>
+      <c r="G28">
+        <v>1.6528729071537291</v>
+      </c>
+      <c r="H28">
+        <v>1.7265981735159819</v>
+      </c>
+      <c r="I28">
+        <v>1.9358828006088282</v>
+      </c>
+      <c r="J28">
+        <v>1.7812975646879758</v>
+      </c>
+      <c r="K28">
         <v>1.9620433789954339</v>
       </c>
-      <c r="Q28" s="3">
-        <v>1.5862823439878235</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1.4856037544393708</v>
-      </c>
-      <c r="S28" s="3">
-        <v>1.3262620497209539</v>
-      </c>
-      <c r="T28" s="3">
-        <v>1.2810755961440894</v>
-      </c>
-      <c r="U28" s="3">
-        <v>1.2057648401826484</v>
-      </c>
-      <c r="V28" s="3">
-        <v>1.1589928970065957</v>
-      </c>
-      <c r="W28" s="3">
-        <v>1.0797184170471841</v>
-      </c>
-      <c r="X28" s="3">
-        <v>1.0170915778792491</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0.88232496194824972</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1.2390601217656012</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>1.2319254185692541</v>
+      <c r="L28">
+        <v>2.2545662100456623</v>
+      </c>
+      <c r="M28">
+        <v>2.6933504566210047</v>
+      </c>
+      <c r="N28">
+        <v>2.2274195344693175</v>
+      </c>
+      <c r="O28">
+        <v>2.3942561884162461</v>
+      </c>
+      <c r="P28">
+        <v>1.9328559568285595</v>
+      </c>
+      <c r="Q28">
+        <v>1.7615722087921928</v>
+      </c>
+      <c r="R28">
+        <v>1.5158320233550415</v>
+      </c>
+      <c r="S28">
+        <v>1.3318112633181127</v>
+      </c>
+      <c r="T28">
+        <v>1.1306805827353774</v>
+      </c>
+      <c r="U28">
+        <v>1.0615126226840916</v>
+      </c>
+      <c r="V28">
+        <v>0.965727182071065</v>
+      </c>
+      <c r="W28">
+        <v>0.94604524221907316</v>
+      </c>
+      <c r="X28">
+        <v>0.91980265574975062</v>
+      </c>
+      <c r="Y28">
+        <v>0.79260066417600672</v>
+      </c>
+      <c r="Z28">
+        <v>0.87912664672230101</v>
+      </c>
+      <c r="AA28">
+        <v>0.91067672258991317</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="G29" s="3">
-        <v>7.6103500761035017E-2</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="J29" s="3">
-        <v>9.1324200913242004E-2</v>
-      </c>
-      <c r="K29" s="3">
-        <v>4.1511000415110001E-2</v>
-      </c>
-      <c r="L29" s="3">
-        <v>4.5186453576864537E-2</v>
-      </c>
-      <c r="M29" s="3">
-        <v>6.1607595854171207E-2</v>
-      </c>
-      <c r="N29" s="3">
-        <v>6.0565702688990357E-2</v>
-      </c>
-      <c r="O29" s="3">
-        <v>9.3826233814974666E-2</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0.12822918621379872</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0.13549268126146885</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0.13692492757892669</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0.13848341941762107</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0.13078439866398708</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0.14134611593860083</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0.12857366675067947</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0.12958015809982651</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0.1314419189044469</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0.12647997737099445</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0.1307021849389437</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0.11879041402347462</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.46269309239288842</v>
+      </c>
+      <c r="E29">
+        <v>0.5627610997765472</v>
+      </c>
+      <c r="F29">
+        <v>0.63392596910521726</v>
+      </c>
+      <c r="G29">
+        <v>0.75051005537744098</v>
+      </c>
+      <c r="H29">
+        <v>0.57806276109977661</v>
+      </c>
+      <c r="I29">
+        <v>0.79690080637326355</v>
+      </c>
+      <c r="J29">
+        <v>0.77091227047508015</v>
+      </c>
+      <c r="K29">
+        <v>0.76678325075293896</v>
+      </c>
+      <c r="L29">
+        <v>0.51831341688526189</v>
+      </c>
+      <c r="M29">
+        <v>0.71504906246963962</v>
+      </c>
+      <c r="N29">
+        <v>0.68726553614774832</v>
+      </c>
+      <c r="O29">
+        <v>0.71675917910067732</v>
+      </c>
+      <c r="P29">
+        <v>0.72630748077608587</v>
+      </c>
+      <c r="Q29">
+        <v>0.67347354483882471</v>
+      </c>
+      <c r="R29">
+        <v>0.71675917910067732</v>
+      </c>
+      <c r="S29">
+        <v>0.71633481013732581</v>
+      </c>
+      <c r="T29">
+        <v>0.73097553937295245</v>
+      </c>
+      <c r="U29">
+        <v>0.65480131045135881</v>
+      </c>
+      <c r="V29">
+        <v>0.61597155030469697</v>
+      </c>
+      <c r="W29">
+        <v>0.69341888611634506</v>
+      </c>
+      <c r="X29">
+        <v>0.40208959277554279</v>
+      </c>
+      <c r="Y29">
+        <v>0.28072006925701481</v>
+      </c>
+      <c r="Z29">
+        <v>0.4532260528593981</v>
+      </c>
+      <c r="AA29">
+        <v>0.59093378146695863</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0.5129986815513915</v>
+      </c>
+      <c r="E30">
+        <v>0.55453066600375933</v>
+      </c>
+      <c r="F30">
+        <v>0.57783312577833124</v>
+      </c>
+      <c r="G30">
+        <v>0.45924264288498756</v>
+      </c>
+      <c r="H30">
+        <v>0.51361522396226034</v>
+      </c>
+      <c r="I30">
+        <v>0.45305856442044345</v>
+      </c>
+      <c r="J30">
+        <v>0.55272667699159728</v>
+      </c>
+      <c r="K30">
+        <v>0.56416173424867799</v>
+      </c>
+      <c r="L30">
+        <v>0.5750253191616117</v>
+      </c>
+      <c r="M30">
+        <v>0.59650867994390666</v>
+      </c>
+      <c r="N30">
+        <v>0.61565136726762482</v>
+      </c>
+      <c r="O30">
+        <v>0.6426517842042957</v>
+      </c>
+      <c r="P30">
+        <v>0.64717278424950564</v>
+      </c>
+      <c r="Q30">
+        <v>0.66262806492460002</v>
+      </c>
+      <c r="R30">
+        <v>0.66936663291708864</v>
+      </c>
+      <c r="S30">
+        <v>0.69493132707726613</v>
+      </c>
+      <c r="T30">
+        <v>0.68361978501942766</v>
+      </c>
+      <c r="U30">
+        <v>0.66613025828467909</v>
+      </c>
+      <c r="V30">
+        <v>0.70395194452165721</v>
+      </c>
+      <c r="W30">
+        <v>0.62608147080028842</v>
+      </c>
+      <c r="X30">
+        <v>0.58077649300152889</v>
+      </c>
+      <c r="Y30">
+        <v>0.5166430036283326</v>
+      </c>
+      <c r="Z30">
+        <v>0.50410916925621463</v>
+      </c>
+      <c r="AA30">
+        <v>0.52041588573808539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>0.39120353940426333</v>
+      </c>
+      <c r="E31">
+        <v>0.33643267797572574</v>
+      </c>
+      <c r="F31">
+        <v>0.29408285423616531</v>
+      </c>
+      <c r="G31">
+        <v>0.23457367858797282</v>
+      </c>
+      <c r="H31">
+        <v>0.27194221605906266</v>
+      </c>
+      <c r="I31">
+        <v>0.29841905746532266</v>
+      </c>
+      <c r="J31">
+        <v>0.32185438863521054</v>
+      </c>
+      <c r="K31">
+        <v>0.26951680191796595</v>
+      </c>
+      <c r="L31">
+        <v>0.39170332018999909</v>
+      </c>
+      <c r="M31">
+        <v>0.26593097737596189</v>
+      </c>
+      <c r="N31">
+        <v>0.36608408124704772</v>
+      </c>
+      <c r="O31">
+        <v>0.35785747267969836</v>
+      </c>
+      <c r="P31">
+        <v>0.31262637565420875</v>
+      </c>
+      <c r="Q31">
+        <v>0.27444375080978578</v>
+      </c>
+      <c r="R31">
+        <v>0.35629997727889062</v>
+      </c>
+      <c r="S31">
+        <v>0.28856429687091301</v>
+      </c>
+      <c r="T31">
+        <v>0.27250255896508918</v>
+      </c>
+      <c r="U31">
+        <v>0.27910642559391458</v>
+      </c>
+      <c r="V31">
+        <v>0.2913082932931304</v>
+      </c>
+      <c r="W31">
+        <v>0.20596819013307641</v>
+      </c>
+      <c r="X31">
+        <v>0.2301987846328149</v>
+      </c>
+      <c r="Y31">
+        <v>0.29800528719057917</v>
+      </c>
+      <c r="Z31">
+        <v>0.30521509252583512</v>
+      </c>
+      <c r="AA31">
+        <v>0.17509527242764442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>0.71630241555997076</v>
+      </c>
+      <c r="E32">
+        <v>0.76074453623339955</v>
+      </c>
+      <c r="F32">
+        <v>0.84962877758025723</v>
+      </c>
+      <c r="G32">
+        <v>0.91498483739412317</v>
+      </c>
+      <c r="H32">
+        <v>0.80082958625257061</v>
+      </c>
+      <c r="I32">
+        <v>0.94112726131966962</v>
+      </c>
+      <c r="J32">
+        <v>0.94722716023563036</v>
+      </c>
+      <c r="K32">
+        <v>0.90801352434731086</v>
+      </c>
+      <c r="L32">
+        <v>0.85398584823451507</v>
+      </c>
+      <c r="M32">
+        <v>0.91498483739412317</v>
+      </c>
+      <c r="N32">
+        <v>0.41691483025610482</v>
+      </c>
+      <c r="O32">
+        <v>0.71542017640886013</v>
+      </c>
+      <c r="P32">
+        <v>0.62182705124932636</v>
+      </c>
+      <c r="Q32">
+        <v>0.83666581582007438</v>
+      </c>
+      <c r="R32">
+        <v>0.68634958450324735</v>
+      </c>
+      <c r="S32">
+        <v>0.82106696162681869</v>
+      </c>
+      <c r="T32">
+        <v>0.74945404010323602</v>
+      </c>
+      <c r="U32">
+        <v>0.77143424373918723</v>
+      </c>
+      <c r="V32">
+        <v>0.96074761053915314</v>
+      </c>
+      <c r="W32">
+        <v>0.79341444737513822</v>
+      </c>
+      <c r="X32">
+        <v>0.79270540854817206</v>
+      </c>
+      <c r="Y32">
+        <v>0.84517428174366827</v>
+      </c>
+      <c r="Z32">
+        <v>0.76930712725828865</v>
+      </c>
+      <c r="AA32">
+        <v>0.87849910661107811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0.69427671002840941</v>
+      </c>
+      <c r="E33">
+        <v>0.69879590698795901</v>
+      </c>
+      <c r="F33">
+        <v>0.61181044057756384</v>
+      </c>
+      <c r="G33">
+        <v>0.5861047948286594</v>
+      </c>
+      <c r="H33">
+        <v>0.60893268765741493</v>
+      </c>
+      <c r="I33">
+        <v>0.67440422144144851</v>
+      </c>
+      <c r="J33">
+        <v>0.4558558889419369</v>
+      </c>
+      <c r="K33">
+        <v>0.41734098593583729</v>
+      </c>
+      <c r="L33">
+        <v>0.42954433209430481</v>
+      </c>
+      <c r="M33">
+        <v>0.38923670937181915</v>
+      </c>
+      <c r="N33">
+        <v>0.30275356302753564</v>
+      </c>
+      <c r="O33">
+        <v>0.33458588915018062</v>
+      </c>
+      <c r="P33">
+        <v>0.37845759346333857</v>
+      </c>
+      <c r="Q33">
+        <v>0.32283050856638335</v>
+      </c>
+      <c r="R33">
+        <v>0.215633959859828</v>
+      </c>
+      <c r="S33">
+        <v>0.20775457419293036</v>
+      </c>
+      <c r="T33">
+        <v>0.2099003849843577</v>
+      </c>
+      <c r="U33">
+        <v>0.23792035452397564</v>
+      </c>
+      <c r="V33">
+        <v>0.16210590555900656</v>
+      </c>
+      <c r="W33">
+        <v>0.15327908866131268</v>
+      </c>
+      <c r="X33">
+        <v>9.0980545583676548E-2</v>
+      </c>
+      <c r="Y33">
+        <v>0.13782638600839037</v>
+      </c>
+      <c r="Z33">
+        <v>0.14333020963852885</v>
+      </c>
+      <c r="AA33">
+        <v>0.14702879493597798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="E34">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="F34">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="G34">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="H34">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="I34">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="J34">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="K34">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="L34">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="M34">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="N34">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="O34">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="P34">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="Q34">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="R34">
+        <v>0.14773032500671501</v>
+      </c>
+      <c r="S34">
+        <v>7.8727759407967265E-2</v>
+      </c>
+      <c r="T34">
+        <v>4.5299702833949414E-2</v>
+      </c>
+      <c r="U34">
+        <v>0.12021659191013052</v>
+      </c>
+      <c r="V34">
+        <v>0.14203037060635021</v>
+      </c>
+      <c r="W34">
+        <v>0.23987052771516101</v>
+      </c>
+      <c r="X34">
+        <v>0.26948124859645184</v>
+      </c>
+      <c r="Y34">
+        <v>0.28175972133837968</v>
+      </c>
+      <c r="Z34">
+        <v>0.24806814190375839</v>
+      </c>
+      <c r="AA34">
+        <v>0.28397557433379789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.1775748351090817</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.20409575204095751</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.20489404051047885</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.19157088122605365</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.18588111690305897</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.16387931758971341</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0.17844268204758473</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.17038728225942837</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.15716558655749158</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0.15298675050527735</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0.17980930749757493</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.16248977221738325</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0.18899036022323698</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0.19917016885352842</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0.19964017423142477</v>
-      </c>
-      <c r="S30" s="3">
-        <v>0.18534616268497148</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0.21528852800576376</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0.20791726439950117</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0.19773519552573904</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0.21591161732765551</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0.19701495045221024</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0.21237950279046169</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>0.19586027860834898</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>0.21801705559203086</v>
+      <c r="D35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="E35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="F35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="G35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="H35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="I35">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="J35">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="K35">
+        <v>0.28538812785388129</v>
+      </c>
+      <c r="L35">
+        <v>0.28538812785388129</v>
+      </c>
+      <c r="M35">
+        <v>0.15928639694170119</v>
+      </c>
+      <c r="N35">
+        <v>0.27221636810677907</v>
+      </c>
+      <c r="O35">
+        <v>0.3139269406392694</v>
+      </c>
+      <c r="P35">
+        <v>0.23144663555622458</v>
+      </c>
+      <c r="Q35">
+        <v>0.22507969328853275</v>
+      </c>
+      <c r="R35">
+        <v>0.28561021978217227</v>
+      </c>
+      <c r="S35">
+        <v>0.30546129892617263</v>
+      </c>
+      <c r="T35">
+        <v>0.29257568070353468</v>
+      </c>
+      <c r="U35">
+        <v>0.29003080553188698</v>
+      </c>
+      <c r="V35">
+        <v>0.33973476655524243</v>
+      </c>
+      <c r="W35">
+        <v>0.29202100177342105</v>
+      </c>
+      <c r="X35">
+        <v>0.32126549249836922</v>
+      </c>
+      <c r="Y35">
+        <v>0.33639876105629529</v>
+      </c>
+      <c r="Z35">
+        <v>0.32016493250492806</v>
+      </c>
+      <c r="AA35">
+        <v>0.33763130972877209</v>
       </c>
     </row>
   </sheetData>
